--- a/InputFiles/TC10_Canine_Filter_Study-OSA03.xlsx
+++ b/InputFiles/TC10_Canine_Filter_Study-OSA03.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\May\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\podagatlapalll2\ICDC Automation\ICDCPrasanna\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF89013E-0669-4B9D-93B2-C85D3001D358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5D9D19-98C1-456B-A1BB-A755F4D94903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -82,12 +82,83 @@
     <t>TC10_Canine_Filter_Study-OSA03_WebData.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+WHERE s.clinical_study_designation IN ['OSA03']
+MATCH (c)&lt;--(diag:diagnosis)
+OPTIONAL MATCH (samp:sample)--&gt;(c)
+OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
+WITH DISTINCT c, s, demo, diag, co, demo.patient_age_at_enrollment AS age, demo.weight as weight
+RETURN  
+       coalesce(c.case_id, '') AS `Case ID`,
+       coalesce(s.clinical_study_designation, '') AS `Study Code`,
+       coalesce(s.clinical_study_type, '') AS  `Study Type`,
+       coalesce(demo.breed, '') AS Breed ,
+       coalesce(diag.disease_term, '') AS Diagnosis ,
+       coalesce(diag.stage_of_disease, '') AS `Stage of Disease`,
+    coalesce(CASE age % 1 WHEN 0 THEN apoc.convert.toInteger(age) ELSE age END, '') AS Age,
+       coalesce(demo.sex, '') AS Sex,
+       coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
+coalesce(CASE weight % 1 WHEN 0 THEN apoc.convert.toInteger(weight) ELSE weight END, '') AS `Weight (kg)`,
+       coalesce(diag.best_response, '') AS `Response to Treatment`,
+       coalesce(co.cohort_description, '') AS `Cohort`
+       order by c.case_id asc
+       limit 100
+       </t>
+  </si>
+  <si>
+    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (samp:sample)--&gt;(c)&lt;--(diag:diagnosis) 
+WHERE s.clinical_study_designation IN ['OSA03']
+WITH DISTINCT samp AS samp, c, demo, diag
+RETURN  coalesce(samp.sample_id, '') AS `Sample ID`, 
+        coalesce(c.case_id, '') AS `Case ID`, 
+        coalesce(demo.breed,'') AS Breed , 
+        coalesce(diag.disease_term,'') AS Diagnosis , 
+        coalesce(samp.sample_site, '') AS `Sample Site`,
+        coalesce(samp.summarized_sample_type, '') AS `Sample Type`,
+        coalesce(samp.specific_sample_pathology, '') AS `Pathology/Morphology`,
+        coalesce(samp.tumor_grade, '') AS `Tumor Grade`,
+        coalesce(samp.sample_chronology, '') AS `Sample Chronology`,
+        coalesce(samp.percentage_tumor, '') AS `Percentage Tumor`,
+        coalesce(samp.necropsy_sample, '') AS `Necropsy Sample`,
+        coalesce(samp.sample_preservation, '') AS `Sample Preservation`
+        order by samp.sample_id asc
+        limit 100</t>
+  </si>
+  <si>
+    <t>MATCH (f:file)--&gt;(s:study)
+MATCH (s)&lt;--(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis)
+WHERE s.clinical_study_designation IN ['OSA03']
+WITH DISTINCT f,  s, c, demo, diag
+WITH
+        f, c, demo, diag, s,
+        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+        toInteger(floor(log(f.file_size)/log(1024))) as i,
+        2 as precision
+WITH    
+        f, c, demo, diag, s,
+        f.file_size /(1024^i) AS value, 10^precision AS factor,
+        units[i] as unit
+        WITH    
+        f,  c, demo, diag, s, unit,
+        round(factor * value)/factor AS size
+RETURN DISTINCT
+  coalesce(f.file_name, '') AS `File Name`,
+  coalesce(f.file_type, '') AS `File Type`,
+  coalesce("study", '') AS `Association`,
+  coalesce(f.file_description, '') AS `Description`,
+  coalesce(f.file_format, '') AS  Format,
+  CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
+  coalesce(s.clinical_study_designation,'') AS `Study Code`
+  order by `File Name` asc
+  limit 100</t>
+  </si>
+  <si>
     <t>MATCH (f:file)--&gt;(parent)
 WITH DISTINCT f, parent
 MATCH (diag:diagnosis)--&gt;(c)
 OPTIONAL MATCH (f)-[*]-&gt;(samp:sample)--&gt;(c)--&gt;(s:study)
 MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
-WHERE s.clinical_study_designation IN ['OSA03']
+WHERE s.clinical_study_designation IN ['OSA03'] and demo.breed IN ['Rottweiler']
 OPTIONAL MATCH (s:study)&lt;--(c)&lt;--(diag:diagnosis)&lt;-[*]-(samp)
 WITH
         f, parent, c, demo, diag, s, samp,
@@ -115,77 +186,6 @@
         coalesce(diag.disease_term,'') AS Diagnosis
 order by f.file_name asc
 limit 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-WHERE s.clinical_study_designation IN ['OSA03']
-MATCH (c)&lt;--(diag:diagnosis)
-OPTIONAL MATCH (samp:sample)--&gt;(c)
-OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
-WITH DISTINCT c, s, demo, diag, co, demo.patient_age_at_enrollment AS age, demo.weight as weight
-RETURN  
-       coalesce(c.case_id, '') AS `Case ID`,
-       coalesce(s.clinical_study_designation, '') AS `Study Code`,
-       coalesce(s.clinical_study_type, '') AS  `Study Type`,
-       coalesce(demo.breed, '') AS Breed ,
-       coalesce(diag.disease_term, '') AS Diagnosis ,
-       coalesce(diag.stage_of_disease, '') AS `Stage of Disease`,
-    coalesce(CASE age % 1 WHEN 0 THEN apoc.convert.toInteger(age) ELSE age END, '') AS Age,
-       coalesce(demo.sex, '') AS Sex,
-       coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
-coalesce(CASE weight % 1 WHEN 0 THEN apoc.convert.toInteger(weight) ELSE weight END, '') AS `Weight (kg)`,
-       coalesce(diag.best_response, '') AS `Response to Treatment`,
-       coalesce(co.cohort_description, '') AS `Cohort`
-       order by c.case_id asc
-       limit 100
-       </t>
-  </si>
-  <si>
-    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (samp:sample)--&gt;(c)&lt;--(diag:diagnosis) 
-WHERE s.clinical_study_designation IN ['OSA03']
-WITH DISTINCT samp AS samp, c, demo, diag
-RETURN  coalesce(samp.sample_id, '') AS `Sample ID`, 
-        coalesce(c.case_id, '') AS `Case ID`, 
-        coalesce(demo.breed,'') AS Breed , 
-        coalesce(diag.disease_term,'') AS Diagnosis , 
-        coalesce(samp.sample_site, '') AS `Sample Site`,
-        coalesce(samp.summarized_sample_type, '') AS `Sample Type`,
-        coalesce(samp.specific_sample_pathology, '') AS `Pathology/Morphology`,
-        coalesce(samp.tumor_grade, '') AS `Tumor Grade`,
-        coalesce(samp.sample_chronology, '') AS `Sample Chronology`,
-        coalesce(samp.percentage_tumor, '') AS `Percentage Tumor`,
-        coalesce(samp.necropsy_sample, '') AS `Necropsy Sample`,
-        coalesce(samp.sample_preservation, '') AS `Sample Preservation`
-        order by samp.sample_id asc
-        limit 100</t>
-  </si>
-  <si>
-    <t>MATCH (f:file)--&gt;(s:study)
-MATCH (s)&lt;--(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis)
-WHERE s.clinical_study_designation IN ['OSA03']
-WITH DISTINCT f,  s, c, demo, diag
-WITH
-        f, c, demo, diag, s,
-        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-        toInteger(floor(log(f.file_size)/log(1024))) as i,
-        2 as precision
-WITH    
-        f, c, demo, diag, s,
-        f.file_size /(1024^i) AS value, 10^precision AS factor,
-        units[i] as unit
-        WITH    
-        f,  c, demo, diag, s, unit,
-        round(factor * value)/factor AS size
-RETURN DISTINCT
-  coalesce(f.file_name, '') AS `File Name`,
-  coalesce(f.file_type, '') AS `File Type`,
-  coalesce("study", '') AS `Association`,
-  coalesce(f.file_description, '') AS `Description`,
-  coalesce(f.file_format, '') AS  Format,
-  CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
-  coalesce(s.clinical_study_designation,'') AS `Study Code`
-  order by `File Name` asc
-  limit 100</t>
   </si>
 </sst>
 </file>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -611,7 +611,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -628,7 +628,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -645,7 +645,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -662,7 +662,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
